--- a/regresi_linear.xlsx
+++ b/regresi_linear.xlsx
@@ -30,10 +30,10 @@
     <t>PH2</t>
   </si>
   <si>
-    <t>PH3</t>
+    <t>Volt</t>
   </si>
   <si>
-    <t>Volt</t>
+    <t>PH Akuarium 8</t>
   </si>
 </sst>
 </file>
@@ -774,6 +774,368 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Volt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.6953193350831147E-3"/>
+                  <c:y val="6.9368985126859142E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0399999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96F1-49AD-935D-7E76FF2E487C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="389934320"/>
+        <c:axId val="389938064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="389934320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389938064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="389938064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="389934320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -854,6 +1216,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1371,6 +1773,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1896,10 +2814,10 @@
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1920,16 +2838,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1943,6 +2861,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2214,15 +3162,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:K7"/>
+  <dimension ref="B3:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2231,32 +3179,22 @@
         <v>2</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4.01</v>
       </c>
@@ -2264,7 +3202,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>6.86</v>
       </c>
@@ -2272,7 +3210,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>9.0399999999999991</v>
       </c>
@@ -2280,11 +3218,49 @@
         <v>2.0699999999999998</v>
       </c>
     </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>4.01</v>
+      </c>
+      <c r="C28">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>6.86</v>
+      </c>
+      <c r="C29">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C30">
+        <v>2.95</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
